--- a/src/test/resources/ExcelTestData/AddProgram.xlsx
+++ b/src/test/resources/ExcelTestData/AddProgram.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kundu\git\LMS-Hackathon-Team-15\src\test\resources\ExcelTestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A210128C-3CB4-4936-96F1-377D1CB82BEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C018EA73-FCFD-4423-B353-937412E0E727}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{EC9D81B6-7E2E-4FE9-B6D3-251D538CAD72}"/>
   </bookViews>
